--- a/third-party-tracking-inventory.xlsx
+++ b/third-party-tracking-inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22823"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoalee/Desktop/cmpe202/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632AA976-4724-7546-93BD-7DB461669EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E206176-E792-4A90-A91F-BA6D5F1CD44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{83C68ADE-4DFC-1A41-9EC4-1BA2043B464A}"/>
   </bookViews>
@@ -53,6 +53,9 @@
     <t>Identified CVEs</t>
   </si>
   <si>
+    <t>Annual Cost</t>
+  </si>
+  <si>
     <t>End of License</t>
   </si>
   <si>
@@ -97,30 +100,7 @@
     <t>9.0.31</t>
   </si>
   <si>
-    <t>CVE-2019-1563
-CVE-2019-1552
-CVE-2019-1547
-CVE-2019-1543
-CVE-2018-5407
-CVE-2018-0739
-CVE-2018-0737
-CVE-2018-0735
-CVE-2018-0734
-CVE-2018-0733
-CVE-2018-0732
-CVE-2017-3738
-CVE-2017-3736
-CVE-2017-3735
-CVE-2017-3733
-CVE-2017-3730
-CVE-2016-8610
-CVE-2016-7055
-CVE-2016-7054
-CVE-2016-7053
-CVE-2016-6308
-CVE-2016-6307	
-CVE-2016-6305
-CVE-2016-6305</t>
+    <t>CVE-2019-10072</t>
   </si>
   <si>
     <t>Oracle</t>
@@ -129,13 +109,17 @@
     <t>12.2.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">CVE-2019-2619
-CVE-2019-2444
-CVE-2019-2406	
-CVE-2017-10321	
-CVE-2017-10292
-CVE-2017-10202	
-CVE-2017-10190	</t>
+    <t>CVE-2019-10072
+CVE-2019-0232
+CVE-2019-0221
+CVE-2019-0199
+CVE-2018-11784
+CVE-2018-8037
+CVE-2018-8034
+CVE-2018-8014
+CVE-2018-1336
+CVE-2018-1305
+CVE-2018-1304</t>
   </si>
   <si>
     <t>Bouncy Castle</t>
@@ -145,9 +129,6 @@
   </si>
   <si>
     <t>CVE-2019-17359</t>
-  </si>
-  <si>
-    <t>Annual Cost</t>
   </si>
 </sst>
 </file>
@@ -155,9 +136,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,7 +186,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,26 +503,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F525E4D-8F88-BB48-8D5F-E3E0C19DF0BA}">
   <dimension ref="A1:XFD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="XFD2" sqref="XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1"/>
     <col min="9" max="16382" width="0" hidden="1" customWidth="1"/>
-    <col min="16383" max="16383" width="10.83203125" customWidth="1"/>
-    <col min="16384" max="16384" width="22.33203125" customWidth="1"/>
+    <col min="16383" max="16383" width="10.875" customWidth="1"/>
+    <col min="16384" max="16384" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6 16383:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6 16383:16384" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -561,21 +542,21 @@
         <v>5</v>
       </c>
       <c r="XFC1" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="XFD1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6 16383:16384" ht="404" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6 16383:16384" ht="378">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>43343</v>
@@ -584,47 +565,47 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="XFC2">
         <v>0</v>
       </c>
       <c r="XFD2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6 16383:16384" ht="404" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6 16383:16384" ht="15.75">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="XFC3">
         <v>0</v>
       </c>
       <c r="XFD3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6 16383:16384" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6 16383:16384" ht="173.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>44185</v>
@@ -633,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="XFC4" s="4">
         <v>10000</v>
@@ -642,27 +623,27 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="5" spans="1:6 16383:16384" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6 16383:16384">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="XFC5">
         <v>0</v>
       </c>
       <c r="XFD5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
